--- a/test_data/true_rows.xlsx
+++ b/test_data/true_rows.xlsx
@@ -381,7 +381,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -403,24 +403,24 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -787,18 +787,18 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1061,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1319,12 +1319,12 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1445,12 +1445,12 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1565,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1660,7 +1660,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1831,24 +1831,24 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1887,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2215,18 +2215,18 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2747,12 +2747,12 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -2873,12 +2873,12 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2993,10 +2993,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3088,7 +3088,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>

--- a/test_data/true_rows.xlsx
+++ b/test_data/true_rows.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -25,6 +26,9 @@
   </si>
   <si>
     <t xml:space="preserve">V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V5</t>
   </si>
 </sst>
 </file>
@@ -369,19 +373,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -389,13 +399,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -403,32 +416,38 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -437,6 +456,9 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -445,12 +467,15 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -462,10 +487,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -479,20 +507,26 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -509,18 +543,24 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -529,12 +569,15 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -549,12 +592,15 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -563,12 +609,15 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -577,6 +626,9 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,18 +645,24 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,15 +674,18 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -633,6 +694,9 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -644,15 +708,18 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -661,20 +728,26 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -683,13 +756,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -697,26 +773,32 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -725,12 +807,15 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -747,18 +832,24 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -770,9 +861,12 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,15 +878,18 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -801,12 +898,15 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -815,12 +915,15 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -829,6 +932,9 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -837,12 +943,15 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,12 +966,15 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -871,6 +983,9 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,12 +994,15 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -899,6 +1017,9 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -910,9 +1031,12 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,9 +1048,12 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -935,26 +1062,32 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,18 +1104,24 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -999,10 +1138,13 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1011,12 +1153,15 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1025,6 +1170,9 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1039,6 +1187,9 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1055,24 +1206,30 @@
       <c r="D50" t="n">
         <v>1</v>
       </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1081,6 +1238,9 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1092,15 +1252,18 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -1109,20 +1272,26 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1134,9 +1303,12 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1153,38 +1325,47 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1193,26 +1374,32 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1221,6 +1408,9 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1229,12 +1419,15 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,12 +1436,15 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1260,15 +1456,18 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1277,12 +1476,15 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1291,6 +1493,9 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1299,18 +1504,21 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1319,34 +1527,43 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1358,9 +1575,12 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1369,12 +1589,15 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1386,9 +1609,12 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1397,18 +1623,21 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1417,6 +1646,9 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1433,10 +1665,13 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1445,6 +1680,9 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1459,6 +1697,9 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1470,9 +1711,12 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,32 +1733,41 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1531,6 +1784,9 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1545,6 +1801,9 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1557,6 +1816,9 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1565,12 +1827,15 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1579,26 +1844,32 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1613,12 +1884,15 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1627,7 +1901,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1643,6 +1920,9 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1657,18 +1937,24 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,10 +1971,13 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1697,7 +1986,10 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1713,6 +2005,9 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1722,9 +2017,12 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1733,12 +2031,15 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1747,12 +2048,15 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1767,6 +2071,1709 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1797,19 +3804,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1817,13 +3830,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1831,32 +3847,38 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1865,6 +3887,9 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,12 +3898,15 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,10 +3918,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1907,20 +3938,26 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1937,18 +3974,24 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1957,12 +4000,15 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1977,12 +4023,15 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1991,12 +4040,15 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2005,6 +4057,9 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2021,18 +4076,24 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2044,15 +4105,18 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2061,6 +4125,9 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,15 +4139,18 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -2089,20 +4159,26 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2111,13 +4187,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2125,26 +4204,32 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,12 +4238,15 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2175,18 +4263,24 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2198,9 +4292,12 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2212,15 +4309,18 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -2229,12 +4329,15 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -2243,12 +4346,15 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -2257,6 +4363,9 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2265,12 +4374,15 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2285,12 +4397,15 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -2299,6 +4414,9 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2307,12 +4425,15 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2327,6 +4448,9 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2338,9 +4462,12 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2352,9 +4479,12 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2363,26 +4493,32 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2399,18 +4535,24 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2427,10 +4569,13 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -2439,12 +4584,15 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -2453,6 +4601,9 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2467,6 +4618,9 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2483,24 +4637,30 @@
       <c r="D50" t="n">
         <v>1</v>
       </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -2509,6 +4669,9 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2520,15 +4683,18 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -2537,20 +4703,26 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2562,9 +4734,12 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2581,38 +4756,47 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -2621,26 +4805,32 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -2649,6 +4839,9 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2657,12 +4850,15 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2671,12 +4867,15 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2688,15 +4887,18 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -2705,12 +4907,15 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -2719,6 +4924,9 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2727,18 +4935,21 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -2747,34 +4958,43 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,9 +5006,12 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2797,12 +5020,15 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2814,9 +5040,12 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2825,18 +5054,21 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -2845,6 +5077,9 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2861,10 +5096,13 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -2873,6 +5111,9 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2887,6 +5128,9 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2898,9 +5142,12 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2917,32 +5164,41 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,6 +5215,9 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2973,6 +5232,9 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2985,6 +5247,9 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2993,12 +5258,15 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3007,26 +5275,32 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3041,12 +5315,15 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -3055,7 +5332,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3071,6 +5351,9 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3085,18 +5368,24 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3113,10 +5402,13 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -3125,7 +5417,10 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3141,6 +5436,9 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3150,9 +5448,12 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3161,12 +5462,15 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3175,12 +5479,15 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3195,6 +5502,5140 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_data/true_rows.xlsx
+++ b/test_data/true_rows.xlsx
@@ -379,10 +379,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -413,10 +413,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -490,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -552,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -651,10 +651,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -765,18 +765,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -966,18 +966,18 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1003,12 +1003,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1071,18 +1071,18 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1198,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1317,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1394,12 +1394,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1538,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1609,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1728,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1799,15 +1799,15 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1881,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1969,18 +1969,18 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2006,18 +2006,18 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2181,10 +2181,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -2207,18 +2207,18 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2252,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2306,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -2391,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -2601,15 +2601,15 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -2748,21 +2748,21 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2813,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2853,18 +2853,18 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2887,15 +2887,15 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -2915,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -2932,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -3051,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -3068,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3102,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -3221,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -3258,18 +3258,18 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3295,15 +3295,15 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -3414,10 +3414,10 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -3428,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -3448,18 +3448,18 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -3476,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -3558,13 +3558,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -3598,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -3621,15 +3621,15 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -3740,12 +3740,12 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -3765,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3932,13 +3932,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -4082,10 +4082,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4133,13 +4133,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -4196,18 +4196,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -4238,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4272,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4354,10 +4354,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -4397,18 +4397,18 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -4434,12 +4434,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -4459,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -4502,18 +4502,18 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4612,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -4629,13 +4629,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -4683,10 +4683,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -4734,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -4748,13 +4748,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -4765,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -4825,12 +4825,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -4850,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -4867,13 +4867,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -4969,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -5040,21 +5040,21 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -5085,10 +5085,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -5136,13 +5136,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -5159,21 +5159,21 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -5230,15 +5230,15 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -5258,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -5289,10 +5289,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -5312,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -5437,18 +5437,18 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -5462,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -5496,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -5510,13 +5510,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -5527,13 +5527,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5612,10 +5612,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -5638,18 +5638,18 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -5683,10 +5683,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -5720,13 +5720,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5737,21 +5737,21 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -5768,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5822,21 +5822,21 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5870,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -5904,10 +5904,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5955,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -5969,10 +5969,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -5986,13 +5986,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -6032,15 +6032,15 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -6077,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -6094,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -6179,21 +6179,21 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -6224,13 +6224,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -6244,10 +6244,10 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -6284,18 +6284,18 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -6318,15 +6318,15 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6346,13 +6346,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -6363,10 +6363,10 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -6394,13 +6394,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -6411,10 +6411,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -6431,13 +6431,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -6451,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -6462,13 +6462,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -6482,13 +6482,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -6519,13 +6519,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -6533,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -6553,10 +6553,10 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -6598,10 +6598,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -6618,10 +6618,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -6632,10 +6632,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -6652,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -6669,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -6689,18 +6689,18 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -6726,15 +6726,15 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -6771,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -6791,10 +6791,10 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6845,10 +6845,10 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -6859,13 +6859,13 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6879,18 +6879,18 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -6989,13 +6989,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -7029,10 +7029,10 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -7052,15 +7052,15 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -7074,10 +7074,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -7128,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -7171,12 +7171,12 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -7196,13 +7196,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7258,10 +7258,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -7275,10 +7275,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -7326,10 +7326,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -7352,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7363,13 +7363,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -7377,10 +7377,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7414,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -7428,10 +7428,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7513,10 +7513,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -7530,13 +7530,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -7564,13 +7564,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -7627,18 +7627,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -7649,10 +7649,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -7669,13 +7669,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7703,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -7737,10 +7737,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -7757,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -7828,18 +7828,18 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -7865,12 +7865,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -7890,10 +7890,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -7933,18 +7933,18 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -8043,13 +8043,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -8074,10 +8074,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -8091,10 +8091,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -8114,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -8165,10 +8165,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -8179,13 +8179,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -8256,12 +8256,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -8281,10 +8281,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -8400,13 +8400,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -8423,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -8434,10 +8434,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -8471,21 +8471,21 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -8516,10 +8516,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -8567,13 +8567,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -8590,21 +8590,21 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -8661,15 +8661,15 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -8743,10 +8743,10 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -8831,18 +8831,18 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -8868,18 +8868,18 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -8893,13 +8893,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -8907,10 +8907,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -8958,13 +8958,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -9043,10 +9043,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -9069,18 +9069,18 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -9114,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -9128,10 +9128,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -9151,13 +9151,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -9168,21 +9168,21 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -9199,10 +9199,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -9253,21 +9253,21 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -9301,13 +9301,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -9315,10 +9315,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -9335,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -9386,10 +9386,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -9417,13 +9417,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -9463,15 +9463,15 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -9508,13 +9508,13 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -9525,13 +9525,13 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -9579,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -9610,21 +9610,21 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -9675,10 +9675,10 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -9715,18 +9715,18 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -9749,15 +9749,15 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -9777,13 +9777,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -9794,10 +9794,10 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -9825,13 +9825,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -9842,10 +9842,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -9862,13 +9862,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -9893,13 +9893,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -9913,13 +9913,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -9930,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -9964,13 +9964,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -9984,10 +9984,10 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -10015,10 +10015,10 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -10029,10 +10029,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -10049,10 +10049,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -10063,10 +10063,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -10083,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -10120,18 +10120,18 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -10157,15 +10157,15 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -10182,7 +10182,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -10250,7 +10250,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -10276,10 +10276,10 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -10290,13 +10290,13 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -10310,18 +10310,18 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -10338,10 +10338,10 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -10420,13 +10420,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -10460,10 +10460,10 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -10483,15 +10483,15 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -10505,10 +10505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -10559,10 +10559,10 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -10573,10 +10573,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -10602,12 +10602,12 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -10627,13 +10627,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
